--- a/Patrick/result/clustering/kmean_new.xlsx
+++ b/Patrick/result/clustering/kmean_new.xlsx
@@ -63001,17 +63001,17 @@
     <row r="3297">
       <c r="A3297" t="inlineStr">
         <is>
-          <t>10E1P451_48.jpg</t>
+          <t>8412_153.jpg</t>
         </is>
       </c>
       <c r="B3297" t="n">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C3297" t="n">
-        <v>50.04733727810651</v>
+        <v>33.83333333333334</v>
       </c>
       <c r="D3297" t="n">
-        <v>0.0007081417716906722</v>
+        <v>0.001087748628257888</v>
       </c>
       <c r="E3297" t="n">
         <v>1</v>
